--- a/biology/Médecine/Carl_Anton_Mense/Carl_Anton_Mense.xlsx
+++ b/biology/Médecine/Carl_Anton_Mense/Carl_Anton_Mense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Anton Mense (né le 28 mars 1861 à Rheine, mort le 24 octobre 1938 à Cassel) est un explorateur et un médecin allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Anton Mense naît à Rheine en 1861, où il obtient son diplôme du lycée Dionysianum. Il étudie ensuite la médecine aux universités de Leipzig, Kiel, Berlin et Munich. Il réussit son examen d'État en 1884 à Munich. 
 Plus tard, en 1884, Mense devient chirurgien sur un cargo néerlandais et voyage dans l'Inde hollandaise (Indonésie). Inspiré par cette expérience, il a ensuite cherché à associer son métier de médecin à des voyages d'exploration. Son intérêt particulier était l'Afrique.
@@ -548,10 +562,12 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses parents, père Georg Mense et mère Theodora Mense, étaient des commerçants à Rheine. Ils tenaient un grand magasin. Carl Mense est leur plus jeune enfant. Sa mère meurt à sa naissance.
-Le 15 septembre 1890, Mense épouse Anna Brenken. Le couple va avoir huit enfants[1]. Un de ces enfants meurt de pleurésie à l'âge de trois ans.
+Le 15 septembre 1890, Mense épouse Anna Brenken. Le couple va avoir huit enfants. Un de ces enfants meurt de pleurésie à l'âge de trois ans.
 </t>
         </is>
       </c>
@@ -580,11 +596,48 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Après s’être installé à Cassel, Mense commence à évaluer scientifiquement les résultats de ses nombreux travaux de recherche. À son retour d'Afrique, il avait déjà publié plusieurs rapports sur des questions médicales, hygiéniques, géographiques et ethnologiques. En 1897, il fonde l'Archive for Ship and Tropical Hygiene, la première revue indépendante de médecine tropicale en Allemagne. Il s'agit de son ouvrage le plus célèbre. Mense attire les premiers écrivains de médecine tropicale pour les archives, ce qui en fait un magazine international considéré comme incontournable. Mense lui-même a publié entre 1897 et 1931 un total de 33 articles, principalement des traités sur diverses maladies tropicales. En 1916, il cède la responsabilité de la rédaction à trois professeurs de l'Institut de médecine tropicale de Hambourg : Friedrich Fülleborn, Martin Mayer et Peter Mühlens, mais reste étroitement associé aux archives.
-Autres publications
-Observations linguistiques du Bas et du Moyen Congo, Fisher &amp; Co., Cassel, 1895.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après s’être installé à Cassel, Mense commence à évaluer scientifiquement les résultats de ses nombreux travaux de recherche. À son retour d'Afrique, il avait déjà publié plusieurs rapports sur des questions médicales, hygiéniques, géographiques et ethnologiques. En 1897, il fonde l'Archive for Ship and Tropical Hygiene, la première revue indépendante de médecine tropicale en Allemagne. Il s'agit de son ouvrage le plus célèbre. Mense attire les premiers écrivains de médecine tropicale pour les archives, ce qui en fait un magazine international considéré comme incontournable. Mense lui-même a publié entre 1897 et 1931 un total de 33 articles, principalement des traités sur diverses maladies tropicales. En 1916, il cède la responsabilité de la rédaction à trois professeurs de l'Institut de médecine tropicale de Hambourg : Friedrich Fülleborn, Martin Mayer et Peter Mühlens, mais reste étroitement associé aux archives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carl_Anton_Mense</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carl_Anton_Mense</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Observations linguistiques du Bas et du Moyen Congo, Fisher &amp; Co., Cassel, 1895.
 Éducation sanitaire et médecine tropicales, 2 volumes, Süsserott, Berlin, 1902.
 Manuel des maladies tropicales, Johann Ambrosius Barth Verlag, Leipzig, 1905.
 Manuel de cosmétique, 1912.
@@ -595,31 +648,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Carl_Anton_Mense</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Carl_Anton_Mense</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Autres activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1900 à 1914, Carl Mense est, en plus de son travail de dermatologue à Cassel, enseignant à l’école coloniale de Witzenhausen. L’école, créée en 1898, s’est donné pour objectif de préparer les agriculteurs, les planteurs, les techniciens et les commerçants au travail dans les colonies allemandes, notamment en Afrique. Mense voulait promouvoir la colonisation. Il donne des conférences sur la science de la santé tropicale et l'hygiène tropicale. Le directeur de l’école est Albert Fabarius, pasteur de la division de Coblence. Celui-ci insiste fortement en 1906 pour la nomination de Mense comme professeur. Mense est nommé en 1909 et travaille à cette école coloniale  jusqu'en 1914. Au début de la Première Guerre mondiale, le nombre d'élèves diminue tellement que Mense ne peut plus continuer à enseigner.
 En 1924, à l'âge de 63 ans, il effectue à nouveau un voyage de quatre mois au Panama et en Californie en tant que médecin sur un navire. Le 24 octobre 1938, Mense meurt à Cassel, à l'âge de 77 ans.
